--- a/doc/use case/use case exel/Use_Case_Mikael.Juillet.xlsx
+++ b/doc/use case/use case exel/Use_Case_Mikael.Juillet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion\MA-20\Bataille-Navale.Meline.Juillet\doc\use case\use case exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion_Exercises\Bataille navale\Bataille-Navale\doc\use case\use case exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342B880-AD58-4B10-A005-D7B98BEC1046}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="30420" yWindow="1050" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jouer à la bataille navale" sheetId="3" r:id="rId1"/>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -364,11 +365,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,20 +456,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,44 +780,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1"/>
@@ -735,11 +833,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1"/>
@@ -752,11 +851,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
@@ -769,11 +869,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1"/>
@@ -786,11 +887,12 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1"/>
@@ -803,24 +905,24 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -834,44 +936,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="1"/>
@@ -884,11 +989,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1"/>
@@ -901,11 +1007,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="1"/>
@@ -918,14 +1025,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="1"/>
@@ -938,14 +1045,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="1"/>
@@ -958,8 +1065,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -969,44 +1076,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="1"/>
@@ -1019,11 +1129,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1"/>
@@ -1036,11 +1147,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="1"/>
@@ -1053,11 +1165,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="1"/>
@@ -1070,7 +1183,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1081,8 +1194,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1093,44 +1206,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1"/>
@@ -1143,14 +1259,14 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1"/>
@@ -1163,7 +1279,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -1174,7 +1290,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -1185,7 +1301,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1196,8 +1312,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1207,44 +1323,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1"/>
@@ -1257,11 +1376,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="1"/>
@@ -1274,7 +1394,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -1285,7 +1405,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -1296,7 +1416,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1307,8 +1427,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
         <v>56</v>
       </c>
     </row>

--- a/doc/use case/use case exel/Use_Case_Mikael.Juillet.xlsx
+++ b/doc/use case/use case exel/Use_Case_Mikael.Juillet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion_Exercises\Bataille navale\Bataille-Navale\doc\use case\use case exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion\MA-20\Bataille-Navale.Meline.Juillet\doc\use case\use case exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342B880-AD58-4B10-A005-D7B98BEC1046}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="1050" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30420" yWindow="1050" windowWidth="21600" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jouer à la bataille navale" sheetId="3" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Identifiant + titre</t>
   </si>
@@ -79,21 +78,12 @@
     <t xml:space="preserve">Je choisis le mode "connection" </t>
   </si>
   <si>
-    <t>Je choisis une case</t>
-  </si>
-  <si>
     <t>L'application affiche un message qui indique "raté"</t>
   </si>
   <si>
     <t>L'application affiche un message qui indique "toucher"</t>
   </si>
   <si>
-    <t xml:space="preserve">Je choisis un case juste à côter </t>
-  </si>
-  <si>
-    <t>Je choisis une autre case</t>
-  </si>
-  <si>
     <t>l'application affiche un message qui indique "couler"</t>
   </si>
   <si>
@@ -118,27 +108,15 @@
     <t>Je choisis le mode" Utilisateur"</t>
   </si>
   <si>
-    <t xml:space="preserve">Je continue le jeux jusqu’à avoir toucher tout les bateaux </t>
-  </si>
-  <si>
     <t xml:space="preserve">Je lance l'application </t>
   </si>
   <si>
-    <t>J'entre mon nom d'utilisateur avec une faute d'orthographe</t>
-  </si>
-  <si>
-    <t>J'entre mon nom d'utilisateur sans fautes d'orthographe</t>
-  </si>
-  <si>
     <t>Le système affiche une phrase d'erreur en demandant d'entrer un nom valide</t>
   </si>
   <si>
     <t>Le système affiche un message de bienvenu</t>
   </si>
   <si>
-    <t xml:space="preserve">J'inscrit mon nom d'utilisateur </t>
-  </si>
-  <si>
     <t>Voir mes propres statistiques</t>
   </si>
   <si>
@@ -215,12 +193,42 @@
   </si>
   <si>
     <t xml:space="preserve">Navale_Mikael.Juillet - Afficher l'aide du jeux </t>
+  </si>
+  <si>
+    <t>Je choisis la case 5,6</t>
+  </si>
+  <si>
+    <t>La case est vide</t>
+  </si>
+  <si>
+    <t>Je choisis la case 2,2</t>
+  </si>
+  <si>
+    <t>Je choisis la case 2,3</t>
+  </si>
+  <si>
+    <t>Il y a un bateau qui n'est pas déjà toucher sur cette case</t>
+  </si>
+  <si>
+    <t>Je choisis la case 8,9</t>
+  </si>
+  <si>
+    <t>Tous points des bateau sont toucher sauf un qui est la case choisie</t>
+  </si>
+  <si>
+    <t>J'entre mon nom d'utilisateur avec une faute d'orthographe (paulo)</t>
+  </si>
+  <si>
+    <t>J'entre mon nom d'utilisateur sans fautes d'orthographe (paul)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'inscrit mon nom d'utilisateur (Mark) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,22 +488,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -780,28 +788,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875"/>
-    <col min="9" max="14" width="11.44140625" style="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="8" width="11.5703125"/>
+    <col min="9" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -815,31 +823,31 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
@@ -851,49 +859,55 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
@@ -905,25 +919,27 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -936,28 +952,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875"/>
-    <col min="9" max="14" width="11.44140625" style="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="33.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125"/>
+    <col min="9" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -971,31 +987,31 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
@@ -1007,53 +1023,53 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
@@ -1065,9 +1081,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1076,28 +1092,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875"/>
-    <col min="9" max="14" width="11.44140625" style="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="33.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125"/>
+    <col min="9" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1111,31 +1127,31 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
@@ -1147,13 +1163,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
@@ -1165,25 +1181,25 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20" t="s">
-        <v>41</v>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1194,9 +1210,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1206,28 +1222,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875"/>
-    <col min="9" max="14" width="11.44140625" style="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="8" width="11.5703125"/>
+    <col min="9" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1241,33 +1257,33 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>55</v>
+    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
@@ -1279,29 +1295,29 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1312,9 +1328,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1323,28 +1339,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875"/>
-    <col min="9" max="14" width="11.44140625" style="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="8" width="11.5703125"/>
+    <col min="9" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1358,31 +1374,31 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20" t="s">
-        <v>49</v>
+    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
@@ -1394,29 +1410,29 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1427,9 +1443,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
